--- a/PRODUCTION 2025.xlsx
+++ b/PRODUCTION 2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E35766-155E-4965-ABAA-A2716CDA7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AC2B0-BCFB-415D-ABB9-41ECEFFF103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="3660" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="348" windowWidth="23040" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,6 +848,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,10 +878,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31473,8 +31473,8 @@
   <dimension ref="A1:V371"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31488,13 +31488,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
@@ -31504,11 +31504,11 @@
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -31576,7 +31576,7 @@
       <c r="U4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="53" t="s">
         <v>16</v>
       </c>
     </row>
@@ -31619,7 +31619,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="29"/>
       <c r="U5" s="29"/>
-      <c r="V5" s="53"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
@@ -31687,7 +31687,7 @@
         <f>SUM(M6:T6)</f>
         <v>53174</v>
       </c>
-      <c r="V6" s="54">
+      <c r="V6" s="55">
         <f>+SUMIF(U6:U36,"&gt;0")</f>
         <v>1906350</v>
       </c>
@@ -31758,7 +31758,7 @@
         <f t="shared" ref="U7:U70" si="6">SUM(M7:T7)</f>
         <v>53766</v>
       </c>
-      <c r="V7" s="55"/>
+      <c r="V7" s="56"/>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38">
@@ -31826,7 +31826,7 @@
         <f t="shared" si="6"/>
         <v>48641</v>
       </c>
-      <c r="V8" s="55"/>
+      <c r="V8" s="56"/>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38">
@@ -31894,7 +31894,7 @@
         <f t="shared" si="6"/>
         <v>47464</v>
       </c>
-      <c r="V9" s="55"/>
+      <c r="V9" s="56"/>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
@@ -31962,7 +31962,7 @@
         <f t="shared" si="6"/>
         <v>57975</v>
       </c>
-      <c r="V10" s="55"/>
+      <c r="V10" s="56"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
@@ -32030,7 +32030,7 @@
         <f t="shared" si="6"/>
         <v>58341</v>
       </c>
-      <c r="V11" s="55"/>
+      <c r="V11" s="56"/>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
@@ -32098,7 +32098,7 @@
         <f t="shared" si="6"/>
         <v>52934</v>
       </c>
-      <c r="V12" s="55"/>
+      <c r="V12" s="56"/>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
@@ -32166,7 +32166,7 @@
         <f t="shared" si="6"/>
         <v>50448</v>
       </c>
-      <c r="V13" s="55"/>
+      <c r="V13" s="56"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
@@ -32236,7 +32236,7 @@
         <f t="shared" si="6"/>
         <v>65465</v>
       </c>
-      <c r="V14" s="55"/>
+      <c r="V14" s="56"/>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
@@ -32306,7 +32306,7 @@
         <f t="shared" si="6"/>
         <v>58423</v>
       </c>
-      <c r="V15" s="55"/>
+      <c r="V15" s="56"/>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
@@ -32376,7 +32376,7 @@
         <f t="shared" si="6"/>
         <v>56419</v>
       </c>
-      <c r="V16" s="55"/>
+      <c r="V16" s="56"/>
     </row>
     <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
@@ -32446,7 +32446,7 @@
         <f t="shared" si="6"/>
         <v>58678</v>
       </c>
-      <c r="V17" s="55"/>
+      <c r="V17" s="56"/>
     </row>
     <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
@@ -32516,7 +32516,7 @@
         <f t="shared" si="6"/>
         <v>58205</v>
       </c>
-      <c r="V18" s="55"/>
+      <c r="V18" s="56"/>
     </row>
     <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
@@ -32586,7 +32586,7 @@
         <f t="shared" si="6"/>
         <v>57968</v>
       </c>
-      <c r="V19" s="55"/>
+      <c r="V19" s="56"/>
     </row>
     <row r="20" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
@@ -32656,7 +32656,7 @@
         <f t="shared" si="6"/>
         <v>54239</v>
       </c>
-      <c r="V20" s="55"/>
+      <c r="V20" s="56"/>
     </row>
     <row r="21" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38">
@@ -32728,7 +32728,7 @@
         <f t="shared" si="6"/>
         <v>66973</v>
       </c>
-      <c r="V21" s="55"/>
+      <c r="V21" s="56"/>
     </row>
     <row r="22" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
@@ -32800,7 +32800,7 @@
         <f t="shared" si="6"/>
         <v>68507</v>
       </c>
-      <c r="V22" s="55"/>
+      <c r="V22" s="56"/>
     </row>
     <row r="23" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
@@ -32872,7 +32872,7 @@
         <f t="shared" si="6"/>
         <v>62883</v>
       </c>
-      <c r="V23" s="55"/>
+      <c r="V23" s="56"/>
     </row>
     <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
@@ -32944,7 +32944,7 @@
         <f t="shared" si="6"/>
         <v>49626</v>
       </c>
-      <c r="V24" s="55"/>
+      <c r="V24" s="56"/>
     </row>
     <row r="25" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
@@ -33016,7 +33016,7 @@
         <f t="shared" si="6"/>
         <v>58465</v>
       </c>
-      <c r="V25" s="55"/>
+      <c r="V25" s="56"/>
     </row>
     <row r="26" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
@@ -33088,7 +33088,7 @@
         <f t="shared" si="6"/>
         <v>58549</v>
       </c>
-      <c r="V26" s="55"/>
+      <c r="V26" s="56"/>
     </row>
     <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
@@ -33160,7 +33160,7 @@
         <f t="shared" si="6"/>
         <v>59980</v>
       </c>
-      <c r="V27" s="55"/>
+      <c r="V27" s="56"/>
     </row>
     <row r="28" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
@@ -33232,7 +33232,7 @@
         <f t="shared" si="6"/>
         <v>66594</v>
       </c>
-      <c r="V28" s="55"/>
+      <c r="V28" s="56"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
@@ -33304,7 +33304,7 @@
         <f t="shared" si="6"/>
         <v>70950</v>
       </c>
-      <c r="V29" s="55"/>
+      <c r="V29" s="56"/>
     </row>
     <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38">
@@ -33376,7 +33376,7 @@
         <f t="shared" si="6"/>
         <v>78568</v>
       </c>
-      <c r="V30" s="55"/>
+      <c r="V30" s="56"/>
     </row>
     <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
@@ -33448,7 +33448,7 @@
         <f t="shared" si="6"/>
         <v>71467</v>
       </c>
-      <c r="V31" s="55"/>
+      <c r="V31" s="56"/>
     </row>
     <row r="32" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
@@ -33520,7 +33520,7 @@
         <f t="shared" si="6"/>
         <v>71945</v>
       </c>
-      <c r="V32" s="55"/>
+      <c r="V32" s="56"/>
     </row>
     <row r="33" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
@@ -33592,7 +33592,7 @@
         <f t="shared" si="6"/>
         <v>69243</v>
       </c>
-      <c r="V33" s="55"/>
+      <c r="V33" s="56"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
@@ -33664,7 +33664,7 @@
         <f t="shared" si="6"/>
         <v>76346</v>
       </c>
-      <c r="V34" s="55"/>
+      <c r="V34" s="56"/>
     </row>
     <row r="35" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38">
@@ -33736,7 +33736,7 @@
         <f t="shared" si="6"/>
         <v>71246</v>
       </c>
-      <c r="V35" s="55"/>
+      <c r="V35" s="56"/>
     </row>
     <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40">
@@ -33808,7 +33808,7 @@
         <f t="shared" si="6"/>
         <v>72868</v>
       </c>
-      <c r="V36" s="56"/>
+      <c r="V36" s="57"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
@@ -34093,8 +34093,8 @@
         <f t="shared" si="6"/>
         <v>68826</v>
       </c>
-      <c r="V40" s="57">
-        <f t="shared" ref="V40:V45" si="11">90000-U40</f>
+      <c r="V40" s="48">
+        <f t="shared" ref="V40:V46" si="11">90000-U40</f>
         <v>21174</v>
       </c>
     </row>
@@ -34168,7 +34168,7 @@
         <f t="shared" si="6"/>
         <v>66010</v>
       </c>
-      <c r="V41" s="57">
+      <c r="V41" s="48">
         <f t="shared" si="11"/>
         <v>23990</v>
       </c>
@@ -34243,7 +34243,7 @@
         <f t="shared" si="6"/>
         <v>52915</v>
       </c>
-      <c r="V42" s="57">
+      <c r="V42" s="48">
         <f t="shared" si="11"/>
         <v>37085</v>
       </c>
@@ -34318,7 +34318,7 @@
         <f t="shared" si="6"/>
         <v>70336</v>
       </c>
-      <c r="V43" s="57">
+      <c r="V43" s="48">
         <f t="shared" si="11"/>
         <v>19664</v>
       </c>
@@ -34393,7 +34393,7 @@
         <f t="shared" si="6"/>
         <v>77269</v>
       </c>
-      <c r="V44" s="57">
+      <c r="V44" s="48">
         <f>90000-U44</f>
         <v>12731</v>
       </c>
@@ -34468,7 +34468,7 @@
         <f t="shared" si="6"/>
         <v>81052</v>
       </c>
-      <c r="V45" s="57">
+      <c r="V45" s="48">
         <f t="shared" si="11"/>
         <v>8948</v>
       </c>
@@ -34480,54 +34480,61 @@
       <c r="B46" s="2">
         <v>0.29166666666666702</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="C46" s="3">
+        <v>1635398</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1598292</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1433863</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1295570</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="I46" s="3">
+        <v>218782</v>
+      </c>
+      <c r="J46" s="3">
+        <v>258100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>10362640</v>
+      </c>
       <c r="L46" s="3">
-        <f t="shared" si="0"/>
-        <v>-10207980</v>
+        <v>154660</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="1"/>
-        <v>-1620661</v>
+        <v>14737</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="2"/>
-        <v>-1583465</v>
+        <v>14827</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="3"/>
-        <v>-1422821</v>
+        <v>11042</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="4"/>
-        <v>-1280687</v>
+        <v>14883</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="9"/>
-        <v>-204135</v>
+        <v>14647</v>
       </c>
       <c r="T46" s="3">
-        <f t="shared" si="10"/>
-        <v>-243844</v>
+        <v>14256</v>
       </c>
       <c r="U46" s="26">
-        <f t="shared" si="6"/>
-        <v>-6355613</v>
+        <v>84392</v>
+      </c>
+      <c r="V46">
+        <v>5608</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -34548,23 +34555,23 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10362640</v>
       </c>
       <c r="M47" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1635398</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1598292</v>
       </c>
       <c r="O47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1433863</v>
       </c>
       <c r="P47" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1295570</v>
       </c>
       <c r="Q47" s="3">
         <f t="shared" si="7"/>
@@ -34576,15 +34583,15 @@
       </c>
       <c r="S47" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-218782</v>
       </c>
       <c r="T47" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-258100</v>
       </c>
       <c r="U47" s="26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-6440005</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -54129,10 +54136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42BC80-867C-4C75-9BD9-C2032B6D3CE0}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55996,6 +56003,48 @@
         <v>14457</v>
       </c>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="45">
+        <f>Sheet1!A46</f>
+        <v>45698</v>
+      </c>
+      <c r="B42" s="47">
+        <f>Sheet1!B46</f>
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="C42">
+        <f>Sheet1!M46</f>
+        <v>14737</v>
+      </c>
+      <c r="D42">
+        <f>Sheet1!N46</f>
+        <v>14827</v>
+      </c>
+      <c r="E42">
+        <f>Sheet1!O46</f>
+        <v>11042</v>
+      </c>
+      <c r="F42">
+        <f>Sheet1!P46</f>
+        <v>14883</v>
+      </c>
+      <c r="G42">
+        <f>Sheet1!Q46</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>Sheet1!R46</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>Sheet1!S46</f>
+        <v>14647</v>
+      </c>
+      <c r="J42">
+        <f>Sheet1!T46</f>
+        <v>14256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PRODUCTION 2025.xlsx
+++ b/PRODUCTION 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497E0C10-F264-4468-B350-C9A2ECD1EED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A481A10-61D1-4646-AEFF-7FE67F891E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37470,43 +37470,43 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3">
-        <f t="shared" ref="L83:L133" si="33">K84-K83</f>
+        <f t="shared" ref="L84:L133" si="33">K84-K83</f>
         <v>-15911400</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" ref="M83:M133" si="34">+C84-C83</f>
+        <f t="shared" ref="M84:M133" si="34">+C84-C83</f>
         <v>-2096690</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" ref="N83:N133" si="35">+D84-D83</f>
+        <f t="shared" ref="N84:N133" si="35">+D84-D83</f>
         <v>-2121948</v>
       </c>
       <c r="O84" s="3">
-        <f t="shared" ref="O83:O133" si="36">+E84-E83</f>
+        <f t="shared" ref="O84:O133" si="36">+E84-E83</f>
         <v>-1844936</v>
       </c>
       <c r="P84" s="3">
-        <f t="shared" ref="P83:P133" si="37">+F84-F83</f>
+        <f t="shared" ref="P84:P133" si="37">+F84-F83</f>
         <v>-1779094</v>
       </c>
       <c r="Q84" s="3">
-        <f t="shared" ref="Q83:Q135" si="38">+G84-G83</f>
+        <f t="shared" ref="Q84:Q135" si="38">+G84-G83</f>
         <v>0</v>
       </c>
       <c r="R84" s="3">
-        <f t="shared" ref="R83:R135" si="39">+H84-H83</f>
+        <f t="shared" ref="R84:R135" si="39">+H84-H83</f>
         <v>-391999</v>
       </c>
       <c r="S84" s="3">
-        <f t="shared" ref="S83:S135" si="40">+I84-I83</f>
+        <f t="shared" ref="S84:S135" si="40">+I84-I83</f>
         <v>-717044</v>
       </c>
       <c r="T84" s="3">
-        <f t="shared" ref="T83:T135" si="41">+J84-J83</f>
+        <f t="shared" ref="T84:T135" si="41">+J84-J83</f>
         <v>-770418</v>
       </c>
       <c r="U84" s="26">
-        <f t="shared" ref="U83:U134" si="42">SUM(M84:T84)</f>
+        <f t="shared" ref="U84:U134" si="42">SUM(M84:T84)</f>
         <v>-9722129</v>
       </c>
     </row>
@@ -54945,8 +54945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42BC80-867C-4C75-9BD9-C2032B6D3CE0}">
   <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56557,6 +56557,10 @@
         <f>Sheet1!T39</f>
         <v>4846</v>
       </c>
+      <c r="K35">
+        <f>Sheet1!U39</f>
+        <v>71403</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="45">
@@ -56599,6 +56603,10 @@
         <f>Sheet1!T40</f>
         <v>5168</v>
       </c>
+      <c r="K36">
+        <f>Sheet1!U40</f>
+        <v>68826</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="45">
@@ -56641,6 +56649,10 @@
         <f>Sheet1!T41</f>
         <v>14762</v>
       </c>
+      <c r="K37">
+        <f>Sheet1!U41</f>
+        <v>66010</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="45">
@@ -56683,6 +56695,10 @@
         <f>Sheet1!T42</f>
         <v>10290</v>
       </c>
+      <c r="K38">
+        <f>Sheet1!U42</f>
+        <v>52915</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="45">
@@ -56725,6 +56741,10 @@
         <f>Sheet1!T43</f>
         <v>14491</v>
       </c>
+      <c r="K39">
+        <f>Sheet1!U43</f>
+        <v>70336</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="45">
@@ -56767,6 +56787,10 @@
         <f>Sheet1!T44</f>
         <v>14725</v>
       </c>
+      <c r="K40">
+        <f>Sheet1!U44</f>
+        <v>77269</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="45">
@@ -56809,6 +56833,10 @@
         <f>Sheet1!T45</f>
         <v>14457</v>
       </c>
+      <c r="K41">
+        <f>Sheet1!U45</f>
+        <v>81052</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="45">
@@ -56851,6 +56879,10 @@
         <f>Sheet1!T46</f>
         <v>14256</v>
       </c>
+      <c r="K42">
+        <f>Sheet1!U46</f>
+        <v>84392</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="45">
@@ -56893,6 +56925,10 @@
         <f>Sheet1!T47</f>
         <v>7985</v>
       </c>
+      <c r="K43">
+        <f>Sheet1!U47</f>
+        <v>75872</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="45">
@@ -56935,6 +56971,10 @@
         <f>Sheet1!T48</f>
         <v>3112</v>
       </c>
+      <c r="K44">
+        <f>Sheet1!U48</f>
+        <v>40308</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="45">
@@ -56977,6 +57017,10 @@
         <f>Sheet1!T49</f>
         <v>14344</v>
       </c>
+      <c r="K45">
+        <f>Sheet1!U49</f>
+        <v>86259</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="45">
@@ -57019,6 +57063,10 @@
         <f>Sheet1!T50</f>
         <v>14395</v>
       </c>
+      <c r="K46">
+        <f>Sheet1!U50</f>
+        <v>80933</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="45">
@@ -57061,6 +57109,10 @@
         <f>Sheet1!T51</f>
         <v>7335</v>
       </c>
+      <c r="K47">
+        <f>Sheet1!U51</f>
+        <v>79044</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="45">
@@ -57103,8 +57155,12 @@
         <f>Sheet1!T52</f>
         <v>7488</v>
       </c>
+      <c r="K48">
+        <f>Sheet1!U52</f>
+        <v>72540</v>
+      </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="45">
         <f>Sheet1!A53</f>
         <v>45705</v>
@@ -57145,8 +57201,12 @@
         <f>Sheet1!T53</f>
         <v>14817</v>
       </c>
+      <c r="K49">
+        <f>Sheet1!U53</f>
+        <v>84015</v>
+      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="45">
         <f>Sheet1!A54</f>
         <v>45706</v>
@@ -57187,8 +57247,12 @@
         <f>Sheet1!T54</f>
         <v>14196</v>
       </c>
+      <c r="K50">
+        <f>Sheet1!U54</f>
+        <v>82276</v>
+      </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="45">
         <f>Sheet1!A55</f>
         <v>45707</v>
@@ -57229,8 +57293,12 @@
         <f>Sheet1!T55</f>
         <v>14854</v>
       </c>
+      <c r="K51">
+        <f>Sheet1!U55</f>
+        <v>84632</v>
+      </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="45">
         <f>Sheet1!A56</f>
         <v>45708</v>
@@ -57271,8 +57339,12 @@
         <f>Sheet1!T56</f>
         <v>14837</v>
       </c>
+      <c r="K52">
+        <f>Sheet1!U56</f>
+        <v>87013</v>
+      </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="45">
         <f>Sheet1!A57</f>
         <v>45709</v>
@@ -57313,8 +57385,12 @@
         <f>Sheet1!T57</f>
         <v>14853</v>
       </c>
+      <c r="K53">
+        <f>Sheet1!U57</f>
+        <v>89956</v>
+      </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="45">
         <f>Sheet1!A58</f>
         <v>45710</v>
@@ -57355,8 +57431,12 @@
         <f>Sheet1!T58</f>
         <v>15483</v>
       </c>
+      <c r="K54">
+        <f>Sheet1!U58</f>
+        <v>77612</v>
+      </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="45">
         <f>Sheet1!A59</f>
         <v>45711</v>
@@ -57397,8 +57477,12 @@
         <f>Sheet1!T59</f>
         <v>14889</v>
       </c>
+      <c r="K55">
+        <f>Sheet1!U59</f>
+        <v>82831</v>
+      </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="45">
         <f>Sheet1!A60</f>
         <v>45712</v>
@@ -57439,8 +57523,12 @@
         <f>Sheet1!T60</f>
         <v>14811</v>
       </c>
+      <c r="K56">
+        <f>Sheet1!U60</f>
+        <v>94316</v>
+      </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="45">
         <f>Sheet1!A61</f>
         <v>45713</v>
@@ -57481,8 +57569,12 @@
         <f>Sheet1!T61</f>
         <v>14962</v>
       </c>
+      <c r="K57">
+        <f>Sheet1!U61</f>
+        <v>97557</v>
+      </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="45">
         <f>Sheet1!A62</f>
         <v>45714</v>
@@ -57523,8 +57615,12 @@
         <f>Sheet1!T62</f>
         <v>14770</v>
       </c>
+      <c r="K58">
+        <f>Sheet1!U62</f>
+        <v>94135</v>
+      </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="45">
         <f>Sheet1!A63</f>
         <v>45715</v>
@@ -57565,8 +57661,12 @@
         <f>Sheet1!T63</f>
         <v>14306</v>
       </c>
+      <c r="K59">
+        <f>Sheet1!U63</f>
+        <v>94228</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="45">
         <f>Sheet1!A64</f>
         <v>45716</v>
@@ -57607,8 +57707,12 @@
         <f>Sheet1!T64</f>
         <v>14940</v>
       </c>
+      <c r="K60">
+        <f>Sheet1!U64</f>
+        <v>95898</v>
+      </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="45">
         <f>Sheet1!A65</f>
         <v>45717</v>
@@ -57649,8 +57753,12 @@
         <f>Sheet1!T65</f>
         <v>14931</v>
       </c>
+      <c r="K61">
+        <f>Sheet1!U65</f>
+        <v>90569</v>
+      </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="45">
         <f>Sheet1!A66</f>
         <v>45718</v>
@@ -57691,8 +57799,12 @@
         <f>Sheet1!T66</f>
         <v>14844</v>
       </c>
+      <c r="K62">
+        <f>Sheet1!U66</f>
+        <v>91249</v>
+      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="45">
         <f>Sheet1!A67</f>
         <v>45719</v>
@@ -57733,8 +57845,12 @@
         <f>Sheet1!T67</f>
         <v>14928</v>
       </c>
+      <c r="K63">
+        <f>Sheet1!U67</f>
+        <v>102134</v>
+      </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="45">
         <f>Sheet1!A68</f>
         <v>45720</v>
@@ -57775,8 +57891,12 @@
         <f>Sheet1!T68</f>
         <v>14878</v>
       </c>
+      <c r="K64">
+        <f>Sheet1!U68</f>
+        <v>86868</v>
+      </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="45">
         <f>Sheet1!A69</f>
         <v>45721</v>
@@ -57817,8 +57937,12 @@
         <f>Sheet1!T69</f>
         <v>14917</v>
       </c>
+      <c r="K65">
+        <f>Sheet1!U69</f>
+        <v>86339</v>
+      </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="45">
         <f>Sheet1!A70</f>
         <v>45722</v>
@@ -57859,8 +57983,12 @@
         <f>Sheet1!T70</f>
         <v>14930</v>
       </c>
+      <c r="K66">
+        <f>Sheet1!U70</f>
+        <v>92995</v>
+      </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="45">
         <f>Sheet1!A71</f>
         <v>45723</v>
@@ -57901,8 +58029,12 @@
         <f>Sheet1!T71</f>
         <v>14911</v>
       </c>
+      <c r="K67">
+        <f>Sheet1!U71</f>
+        <v>103104</v>
+      </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="45">
         <f>Sheet1!A72</f>
         <v>45724</v>
@@ -57943,8 +58075,12 @@
         <f>Sheet1!T72</f>
         <v>14962</v>
       </c>
+      <c r="K68">
+        <f>Sheet1!U72</f>
+        <v>101998</v>
+      </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="45">
         <f>Sheet1!A73</f>
         <v>45725</v>
@@ -57985,8 +58121,12 @@
         <f>Sheet1!T73</f>
         <v>14930</v>
       </c>
+      <c r="K69">
+        <f>Sheet1!U73</f>
+        <v>94813</v>
+      </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="45">
         <f>Sheet1!A74</f>
         <v>45726</v>
@@ -58027,8 +58167,12 @@
         <f>Sheet1!T74</f>
         <v>13113</v>
       </c>
+      <c r="K70">
+        <f>Sheet1!U74</f>
+        <v>87541</v>
+      </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="45">
         <f>Sheet1!A75</f>
         <v>45727</v>
@@ -58069,8 +58213,12 @@
         <f>Sheet1!T75</f>
         <v>14905</v>
       </c>
+      <c r="K71">
+        <f>Sheet1!U75</f>
+        <v>102068</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="45">
         <f>Sheet1!A76</f>
         <v>45728</v>
@@ -58111,8 +58259,12 @@
         <f>Sheet1!T76</f>
         <v>14911</v>
       </c>
+      <c r="K72">
+        <f>Sheet1!U76</f>
+        <v>96055</v>
+      </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="45">
         <f>Sheet1!A77</f>
         <v>45729</v>
@@ -58153,8 +58305,12 @@
         <f>Sheet1!T77</f>
         <v>14239</v>
       </c>
+      <c r="K73">
+        <f>Sheet1!U77</f>
+        <v>89275</v>
+      </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="45">
         <f>Sheet1!A78</f>
         <v>45730</v>
@@ -58195,8 +58351,12 @@
         <f>Sheet1!T78</f>
         <v>14982</v>
       </c>
+      <c r="K74">
+        <f>Sheet1!U78</f>
+        <v>96482</v>
+      </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="45">
         <f>Sheet1!A79</f>
         <v>45731</v>
@@ -58237,8 +58397,12 @@
         <f>Sheet1!T79</f>
         <v>14256</v>
       </c>
+      <c r="K75">
+        <f>Sheet1!U79</f>
+        <v>95707</v>
+      </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="45">
         <f>Sheet1!A80</f>
         <v>45732</v>
@@ -58279,8 +58443,12 @@
         <f>Sheet1!T80</f>
         <v>14930</v>
       </c>
+      <c r="K76">
+        <f>Sheet1!U80</f>
+        <v>93853</v>
+      </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="45">
         <f>Sheet1!A81</f>
         <v>45733</v>
@@ -58321,8 +58489,12 @@
         <f>Sheet1!T81</f>
         <v>14983</v>
       </c>
+      <c r="K77">
+        <f>Sheet1!U81</f>
+        <v>87315</v>
+      </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="45">
         <f>Sheet1!A82</f>
         <v>45734</v>
@@ -58363,8 +58535,12 @@
         <f>Sheet1!T82</f>
         <v>14460</v>
       </c>
+      <c r="K78">
+        <f>Sheet1!U82</f>
+        <v>95461</v>
+      </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="45">
         <f>Sheet1!A83</f>
         <v>45735</v>
@@ -58404,6 +58580,10 @@
       <c r="J79">
         <f>Sheet1!T83</f>
         <v>14931</v>
+      </c>
+      <c r="K79">
+        <f>Sheet1!U83</f>
+        <v>100396</v>
       </c>
     </row>
   </sheetData>

--- a/PRODUCTION 2025.xlsx
+++ b/PRODUCTION 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A6CD54-C2DD-4FF5-9678-B79D3D6F12F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87691C61-C318-4EBD-985A-F14817FD37EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1078,7 +1078,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154:W154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12436,56 +12436,67 @@
         <v>45806</v>
       </c>
       <c r="B154" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C154" s="3">
+        <v>2746900</v>
+      </c>
+      <c r="D154" s="3">
+        <v>3002630</v>
+      </c>
+      <c r="E154" s="3">
+        <v>2712475</v>
+      </c>
+      <c r="F154" s="3">
+        <v>2539469</v>
+      </c>
+      <c r="G154" s="3">
+        <v>620516</v>
+      </c>
+      <c r="H154" s="3">
+        <v>1255977</v>
+      </c>
+      <c r="I154" s="3">
+        <v>1630999</v>
+      </c>
+      <c r="J154" s="3">
+        <v>1606670</v>
+      </c>
+      <c r="K154" s="3">
+        <v>27134140</v>
+      </c>
       <c r="L154" s="3">
-        <f t="shared" ref="L153:L197" si="82">K154-K153</f>
-        <v>-27009250</v>
+        <v>124890</v>
       </c>
       <c r="M154" s="3">
-        <f t="shared" ref="M153:M197" si="83">+C154-C153</f>
-        <v>-2731521</v>
+        <v>15379</v>
       </c>
       <c r="N154" s="3">
-        <f t="shared" ref="N153:N197" si="84">+D154-D153</f>
-        <v>-2987302</v>
+        <v>15328</v>
       </c>
       <c r="O154" s="3">
-        <f t="shared" ref="O153:O197" si="85">+E154-E153</f>
-        <v>-2697662</v>
+        <v>14813</v>
       </c>
       <c r="P154" s="3">
-        <f t="shared" ref="P153:P197" si="86">+F154-F153</f>
-        <v>-2524938</v>
+        <v>14531</v>
       </c>
       <c r="Q154" s="3">
-        <f t="shared" ref="Q153:Q199" si="87">+G154-G153</f>
-        <v>-605819</v>
+        <v>14697</v>
       </c>
       <c r="R154" s="3">
-        <f t="shared" ref="R153:R199" si="88">+H154-H153</f>
-        <v>-1240922</v>
+        <v>15055</v>
       </c>
       <c r="S154" s="3">
-        <f t="shared" ref="S153:S199" si="89">+I154-I153</f>
-        <v>-1615944</v>
+        <v>15055</v>
       </c>
       <c r="T154" s="3">
-        <f t="shared" ref="T153:T199" si="90">+J154-J153</f>
-        <v>-1606670</v>
+        <v>0</v>
       </c>
       <c r="U154" s="12">
-        <f t="shared" ref="U153:U198" si="91">SUM(M154:T154)</f>
-        <v>-16010778</v>
+        <v>104858</v>
+      </c>
+      <c r="V154">
+        <v>15142</v>
       </c>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.3">
@@ -12505,44 +12516,44 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f t="shared" ref="L154:L197" si="82">K155-K154</f>
+        <v>-27134140</v>
       </c>
       <c r="M155" s="3">
-        <f t="shared" si="83"/>
-        <v>0</v>
+        <f t="shared" ref="M154:M197" si="83">+C155-C154</f>
+        <v>-2746900</v>
       </c>
       <c r="N155" s="3">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <f t="shared" ref="N154:N197" si="84">+D155-D154</f>
+        <v>-3002630</v>
       </c>
       <c r="O155" s="3">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f t="shared" ref="O154:O197" si="85">+E155-E154</f>
+        <v>-2712475</v>
       </c>
       <c r="P155" s="3">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f t="shared" ref="P154:P197" si="86">+F155-F154</f>
+        <v>-2539469</v>
       </c>
       <c r="Q155" s="3">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" ref="Q154:Q199" si="87">+G155-G154</f>
+        <v>-620516</v>
       </c>
       <c r="R155" s="3">
-        <f t="shared" si="88"/>
-        <v>0</v>
+        <f t="shared" ref="R154:R199" si="88">+H155-H154</f>
+        <v>-1255977</v>
       </c>
       <c r="S155" s="3">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" ref="S154:S199" si="89">+I155-I154</f>
+        <v>-1630999</v>
       </c>
       <c r="T155" s="3">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f t="shared" ref="T154:T199" si="90">+J155-J154</f>
+        <v>-1606670</v>
       </c>
       <c r="U155" s="12">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f t="shared" ref="U154:U198" si="91">SUM(M155:T155)</f>
+        <v>-16115636</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.3">
@@ -24870,10 +24881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D42BC80-867C-4C75-9BD9-C2032B6D3CE0}">
-  <dimension ref="A1:K149"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147:K149"/>
+      <selection activeCell="A147" sqref="A147:K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31733,6 +31744,52 @@
         <v>104711</v>
       </c>
     </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="31">
+        <f>Sheet1!A154</f>
+        <v>45806</v>
+      </c>
+      <c r="B150" s="33">
+        <f>Sheet1!B154</f>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C150">
+        <f>Sheet1!M154</f>
+        <v>15379</v>
+      </c>
+      <c r="D150">
+        <f>Sheet1!N154</f>
+        <v>15328</v>
+      </c>
+      <c r="E150">
+        <f>Sheet1!O154</f>
+        <v>14813</v>
+      </c>
+      <c r="F150">
+        <f>Sheet1!P154</f>
+        <v>14531</v>
+      </c>
+      <c r="G150">
+        <f>Sheet1!Q154</f>
+        <v>14697</v>
+      </c>
+      <c r="H150">
+        <f>Sheet1!R154</f>
+        <v>15055</v>
+      </c>
+      <c r="I150">
+        <f>Sheet1!S154</f>
+        <v>15055</v>
+      </c>
+      <c r="J150">
+        <f>Sheet1!T154</f>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f>Sheet1!U154</f>
+        <v>104858</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
